--- a/data-raw/metadata/2022_update/F4F2021_FishGrowth_AttributesTable2022.xlsx
+++ b/data-raw/metadata/2022_update/F4F2021_FishGrowth_AttributesTable2022.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobshikora\Documents\CalTrout\BORCharter\DataTransfer\2022Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/edi.996.1/data-raw/metadata/2022_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DDA7CF-4E9E-4209-BEEF-1B5773D20F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B7401C-B9EC-3346-93F9-8FC36C05D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{739F65F0-C634-4850-9ECE-CC3E3F5B8CFF}"/>
+    <workbookView xWindow="34640" yWindow="2840" windowWidth="26020" windowHeight="16940" xr2:uid="{739F65F0-C634-4850-9ECE-CC3E3F5B8CFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="attribute" sheetId="1" r:id="rId1"/>
+    <sheet name="code_definitions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -52,12 +53,6 @@
   </si>
   <si>
     <t>domain</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>text_pattern</t>
   </si>
   <si>
     <t>type</t>
@@ -144,10 +139,19 @@
     <t>weight of fish measured in grams</t>
   </si>
   <si>
-    <t>millimeters</t>
+    <t>code</t>
   </si>
   <si>
-    <t>grams</t>
+    <t>definitions</t>
+  </si>
+  <si>
+    <t>attribute_name</t>
+  </si>
+  <si>
+    <t>millimeter</t>
+  </si>
+  <si>
+    <t>gram</t>
   </si>
 </sst>
 </file>
@@ -157,10 +161,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,6 +209,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,22 +524,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076A4BE3-4952-4255-B475-5B6463ACF1E0}">
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMH6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,50 +581,42 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:1022" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" t="s">
-        <v>19</v>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
+      <c r="L2" t="s">
+        <v>17</v>
       </c>
-      <c r="O2" s="4">
+      <c r="M2" s="4">
         <v>44599</v>
       </c>
-      <c r="P2" s="4">
+      <c r="N2" s="4">
         <v>44648</v>
       </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1620,29 +1623,25 @@
       <c r="AMF2" s="1"/>
       <c r="AMG2" s="1"/>
       <c r="AMH2" s="1"/>
-      <c r="AMI2" s="1"/>
-      <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1022" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2658,38 +2657,34 @@
       <c r="AMF3" s="1"/>
       <c r="AMG3" s="1"/>
       <c r="AMH3" s="1"/>
-      <c r="AMI3" s="1"/>
-      <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" spans="1:1024" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1022" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -3696,48 +3691,44 @@
       <c r="AMF4" s="1"/>
       <c r="AMG4" s="1"/>
       <c r="AMH4" s="1"/>
-      <c r="AMI4" s="1"/>
-      <c r="AMJ4" s="1"/>
     </row>
-    <row r="5" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1022" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5">
+      <c r="M5">
         <v>49</v>
       </c>
-      <c r="P5">
+      <c r="N5">
         <v>93</v>
       </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -4744,48 +4735,44 @@
       <c r="AMF5" s="1"/>
       <c r="AMG5" s="1"/>
       <c r="AMH5" s="1"/>
-      <c r="AMI5" s="1"/>
-      <c r="AMJ5" s="1"/>
     </row>
-    <row r="6" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1022" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6">
+      <c r="M6">
         <v>0.74</v>
       </c>
-      <c r="P6">
+      <c r="N6">
         <v>8.01</v>
       </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -5792,15 +5779,13 @@
       <c r="AMF6" s="1"/>
       <c r="AMG6" s="1"/>
       <c r="AMH6" s="1"/>
-      <c r="AMI6" s="1"/>
-      <c r="AMJ6" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6" xr:uid="{7086E644-3855-4A19-9531-9CBDFA362281}">
       <formula1>"string,boolean,decimal,float,double,duration,dateTime,time,date,gYearMonth,gYear,gMonthDay,gDay,gMonth"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K6" xr:uid="{B23E90DD-D7D1-4245-9278-6A9CF5B151C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I6" xr:uid="{B23E90DD-D7D1-4245-9278-6A9CF5B151C6}">
       <formula1>"natural,whole,interger,real"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D6" xr:uid="{9FA4C469-3DA8-4AA3-8BC7-A6DC36648E4E}">
@@ -5809,10 +5794,37 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6" xr:uid="{A57FFFA7-014D-458F-8B16-644F43EBD83B}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I6" xr:uid="{C55CE7A2-259F-48B0-8852-E92E301A3A7E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6" xr:uid="{C55CE7A2-259F-48B0-8852-E92E301A3A7E}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A128CAC-8BB5-4049-B25B-937626F269E2}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>